--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-endpoint.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-endpoint.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="382">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>DSF Endpoint</t>
+    <t>Endpoint</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-26</t>
+    <t>2025-10-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,9 +81,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>An Endpoint in the DSF context with restrictions to enforce DSF specific details.</t>
-  </si>
-  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
   </si>
   <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Endpoint</t>
   </si>
   <si>
     <t>Base Definition</t>
@@ -288,7 +282,7 @@
     <t>Endpoint.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {http://dsf.dev/fhir/StructureDefinition/meta|2.0.0}
 </t>
   </si>
   <si>
@@ -346,7 +340,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -598,7 +592,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -686,7 +680,7 @@
     <t>Endpoint.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -742,7 +736,7 @@
     <t>For additional connectivity details for the protocol, extensions will be used at this point, as in the XDS example.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/endpoint-connection-type</t>
+    <t>http://hl7.org/fhir/ValueSet/endpoint-connection-type|4.0.1</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -929,7 +923,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1011,7 +1005,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/endpoint-payload-type</t>
+    <t>http://hl7.org/fhir/ValueSet/endpoint-payload-type|4.0.1</t>
   </si>
   <si>
     <t>value:coding.system}
@@ -1437,57 +1431,55 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>12</v>
@@ -1495,10 +1487,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1517,17 +1509,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.09765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.9921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.28125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.82421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.58984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.73046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1536,148 +1528,148 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="42.76171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.0546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.4765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.2890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="87.9765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="86.17578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AL1" t="s" s="1">
         <v>71</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1685,28 +1677,28 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1757,22 +1749,22 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>20</v>
@@ -1780,10 +1772,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1791,31 +1783,31 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1865,13 +1857,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1888,10 +1880,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1899,10 +1891,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -1911,16 +1903,16 @@
         <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1971,19 +1963,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1994,10 +1986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2005,31 +1997,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2079,19 +2071,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -2102,10 +2094,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2113,10 +2105,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -2128,16 +2120,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2163,43 +2155,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -2210,21 +2202,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2236,16 +2228,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2295,22 +2287,22 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>20</v>
@@ -2318,21 +2310,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -2344,16 +2336,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2403,13 +2395,13 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
@@ -2418,7 +2410,7 @@
         <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>20</v>
@@ -2426,10 +2418,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2437,10 +2429,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -2452,13 +2444,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2497,29 +2489,29 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -2530,23 +2522,23 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -2558,13 +2550,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2615,22 +2607,22 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>20</v>
@@ -2638,45 +2630,45 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2725,22 +2717,22 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>20</v>
@@ -2748,10 +2740,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2759,10 +2751,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -2771,16 +2763,16 @@
         <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2819,56 +2811,56 @@
         <v>20</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -2877,16 +2869,16 @@
         <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2937,33 +2929,33 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2971,10 +2963,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -2986,13 +2978,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3043,13 +3035,13 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
@@ -3058,7 +3050,7 @@
         <v>20</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
@@ -3066,21 +3058,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -3092,16 +3084,16 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3139,34 +3131,34 @@
         <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>20</v>
@@ -3174,10 +3166,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3185,34 +3177,34 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3237,46 +3229,46 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>20</v>
@@ -3284,10 +3276,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3295,10 +3287,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -3307,22 +3299,22 @@
         <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3347,46 +3339,46 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Z17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="AG17" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>20</v>
@@ -3394,10 +3386,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3405,10 +3397,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -3417,86 +3409,86 @@
         <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="S18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T18" t="s" s="2">
+      <c r="AG18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>20</v>
@@ -3504,10 +3496,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3515,10 +3507,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -3527,19 +3519,19 @@
         <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3553,58 +3545,58 @@
         <v>20</v>
       </c>
       <c r="T19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>
@@ -3612,10 +3604,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3623,10 +3615,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -3635,16 +3627,16 @@
         <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3695,22 +3687,22 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
@@ -3718,10 +3710,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3729,10 +3721,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -3741,19 +3733,19 @@
         <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3803,22 +3795,22 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
@@ -3826,10 +3818,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3837,31 +3829,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3887,57 +3879,57 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>228</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3945,10 +3937,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -3957,19 +3949,19 @@
         <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3995,11 +3987,11 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -4017,33 +4009,33 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4051,10 +4043,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -4066,13 +4058,13 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4123,13 +4115,13 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
@@ -4138,7 +4130,7 @@
         <v>20</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
@@ -4146,21 +4138,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -4172,16 +4164,16 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4219,34 +4211,34 @@
         <v>20</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="AK25" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
@@ -4254,10 +4246,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4265,10 +4257,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -4277,86 +4269,86 @@
         <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>20</v>
@@ -4364,10 +4356,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4375,10 +4367,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -4387,19 +4379,19 @@
         <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4449,22 +4441,22 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
@@ -4472,10 +4464,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4483,10 +4475,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4495,84 +4487,84 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
@@ -4580,10 +4572,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4591,10 +4583,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -4603,20 +4595,20 @@
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -4665,22 +4657,22 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
@@ -4688,10 +4680,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4699,10 +4691,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -4711,22 +4703,22 @@
         <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -4775,22 +4767,22 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
@@ -4798,10 +4790,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4809,10 +4801,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -4821,16 +4813,16 @@
         <v>20</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4881,33 +4873,33 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4915,10 +4907,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -4927,19 +4919,19 @@
         <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4989,22 +4981,22 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
@@ -5012,10 +5004,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5023,10 +5015,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5038,13 +5030,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5095,13 +5087,13 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
@@ -5110,7 +5102,7 @@
         <v>20</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>20</v>
@@ -5118,21 +5110,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -5144,16 +5136,16 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5191,34 +5183,34 @@
         <v>20</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>20</v>
@@ -5226,10 +5218,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5237,10 +5229,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -5249,19 +5241,19 @@
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5311,22 +5303,22 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>20</v>
@@ -5334,10 +5326,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5345,10 +5337,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -5357,19 +5349,19 @@
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5395,46 +5387,46 @@
         <v>20</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="AG36" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>20</v>
@@ -5442,10 +5434,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5453,10 +5445,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -5465,19 +5457,19 @@
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5527,22 +5519,22 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>20</v>
@@ -5550,10 +5542,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5561,10 +5553,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -5573,19 +5565,19 @@
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5635,22 +5627,22 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>20</v>
@@ -5658,10 +5650,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5669,10 +5661,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -5684,13 +5676,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5741,22 +5733,22 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
@@ -5764,10 +5756,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5775,10 +5767,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -5787,16 +5779,16 @@
         <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5847,33 +5839,33 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5881,10 +5873,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -5893,19 +5885,19 @@
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5931,42 +5923,42 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
@@ -5974,23 +5966,23 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -5999,19 +5991,19 @@
         <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6037,11 +6029,11 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -6059,22 +6051,22 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>20</v>
@@ -6082,10 +6074,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6093,10 +6085,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -6108,13 +6100,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6165,13 +6157,13 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
@@ -6180,7 +6172,7 @@
         <v>20</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>20</v>
@@ -6188,21 +6180,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6214,16 +6206,16 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6261,34 +6253,34 @@
         <v>20</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AF44" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>20</v>
@@ -6296,10 +6288,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6307,10 +6299,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
@@ -6319,22 +6311,22 @@
         <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -6383,22 +6375,22 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>20</v>
@@ -6406,10 +6398,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6417,10 +6409,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -6432,13 +6424,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6489,13 +6481,13 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
@@ -6504,7 +6496,7 @@
         <v>20</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>20</v>
@@ -6512,21 +6504,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -6538,16 +6530,16 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6585,34 +6577,34 @@
         <v>20</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AF47" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>20</v>
@@ -6620,10 +6612,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6631,10 +6623,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -6643,29 +6635,29 @@
         <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>20</v>
@@ -6707,22 +6699,22 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>20</v>
@@ -6730,10 +6722,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6741,10 +6733,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -6753,19 +6745,19 @@
         <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6815,22 +6807,22 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>20</v>
@@ -6838,10 +6830,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6849,10 +6841,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -6861,27 +6853,27 @@
         <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>20</v>
@@ -6923,22 +6915,22 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>20</v>
@@ -6946,10 +6938,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6957,10 +6949,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -6969,20 +6961,20 @@
         <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7031,22 +7023,22 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>20</v>
@@ -7054,10 +7046,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7065,10 +7057,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -7077,22 +7069,22 @@
         <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7141,22 +7133,22 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>20</v>
@@ -7164,10 +7156,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7175,10 +7167,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -7187,22 +7179,22 @@
         <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -7251,22 +7243,22 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>20</v>
@@ -7274,10 +7266,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7285,31 +7277,31 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7335,44 +7327,44 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB54" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>20</v>
@@ -7380,23 +7372,23 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -7405,19 +7397,19 @@
         <v>20</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7425,7 +7417,7 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>20</v>
@@ -7443,13 +7435,13 @@
         <v>20</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>20</v>
@@ -7467,22 +7459,22 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>20</v>
@@ -7490,23 +7482,23 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
@@ -7515,19 +7507,19 @@
         <v>20</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7535,7 +7527,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>20</v>
@@ -7553,13 +7545,13 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -7577,22 +7569,22 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>20</v>
@@ -7600,10 +7592,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7611,10 +7603,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>20</v>
@@ -7623,19 +7615,19 @@
         <v>20</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -7685,22 +7677,22 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>20</v>
@@ -7708,10 +7700,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7719,10 +7711,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -7734,16 +7726,16 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -7793,19 +7785,19 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>20</v>

--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-endpoint.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-endpoint.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27</t>
+    <t>2025-11-26</t>
   </si>
   <si>
     <t>Publisher</t>
